--- a/cam.mcs.model/model/result.xlsx
+++ b/cam.mcs.model/model/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EplisonWorkSpace\Github\mbse-rts\cam.mcs.model\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E63CE-CD50-426C-A1CF-D02D74E13909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B4F9C-553A-4790-A457-D1FE6207F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43185" yWindow="2595" windowWidth="29115" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1583,10 +1583,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1870,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="F348" sqref="F348"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="E499" sqref="E499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1897,10 +1896,10 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.56557829999999998</v>
       </c>
     </row>
@@ -1908,10 +1907,10 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.58003110000000002</v>
       </c>
     </row>
@@ -1919,10 +1918,10 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>0.59331374999999997</v>
       </c>
     </row>
@@ -1930,10 +1929,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.55859475999999997</v>
       </c>
     </row>
@@ -1941,10 +1940,10 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>0.59563080000000002</v>
       </c>
     </row>
@@ -1952,10 +1951,10 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.53634362999999996</v>
       </c>
     </row>
@@ -1963,10 +1962,10 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.59126984999999999</v>
       </c>
     </row>
@@ -1974,10 +1973,10 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0.57796700000000001</v>
       </c>
     </row>
@@ -1985,10 +1984,10 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.55614520000000001</v>
       </c>
     </row>
@@ -1996,10 +1995,10 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0.53044199999999997</v>
       </c>
     </row>
@@ -2007,10 +2006,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0.56327444000000004</v>
       </c>
     </row>
@@ -2018,10 +2017,10 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>0.57018524000000004</v>
       </c>
     </row>
@@ -2029,10 +2028,10 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.58366059999999997</v>
       </c>
     </row>
@@ -2040,10 +2039,10 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>0.58596515999999998</v>
       </c>
     </row>
@@ -2051,10 +2050,10 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>0.55822289999999997</v>
       </c>
     </row>
@@ -2062,10 +2061,10 @@
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>0.56360310000000002</v>
       </c>
     </row>
@@ -2073,10 +2072,10 @@
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>0.57008219999999998</v>
       </c>
     </row>
@@ -2084,10 +2083,10 @@
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>0.57100682999999997</v>
       </c>
     </row>
@@ -2095,10 +2094,10 @@
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>0.56681912999999995</v>
       </c>
     </row>
@@ -2106,10 +2105,10 @@
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>0.53086805000000004</v>
       </c>
     </row>
@@ -2117,10 +2116,10 @@
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>0.56393939999999998</v>
       </c>
     </row>
@@ -2128,10 +2127,10 @@
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>0.56001939999999995</v>
       </c>
     </row>
@@ -2139,10 +2138,10 @@
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>0.58397823999999998</v>
       </c>
     </row>
@@ -2150,10 +2149,10 @@
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>0.54630789999999996</v>
       </c>
     </row>
@@ -2161,10 +2160,10 @@
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>0.58618104000000004</v>
       </c>
     </row>
@@ -2172,10 +2171,10 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>0.54196953999999997</v>
       </c>
     </row>
@@ -2183,10 +2182,10 @@
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>0.59458420000000001</v>
       </c>
     </row>
@@ -2194,10 +2193,10 @@
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>0.55319494000000002</v>
       </c>
     </row>
@@ -2205,10 +2204,10 @@
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>0.57536279999999995</v>
       </c>
     </row>
@@ -2216,10 +2215,10 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0.55755650000000001</v>
       </c>
     </row>
@@ -2227,10 +2226,10 @@
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>0.566716</v>
       </c>
     </row>
@@ -2238,10 +2237,10 @@
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>0.58309054000000005</v>
       </c>
     </row>
@@ -2249,10 +2248,10 @@
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.55132789999999998</v>
       </c>
     </row>
@@ -2260,10 +2259,10 @@
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>0.58689610000000003</v>
       </c>
     </row>
@@ -2271,10 +2270,10 @@
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>0.55514865999999996</v>
       </c>
     </row>
@@ -2282,10 +2281,10 @@
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>0.54932183000000001</v>
       </c>
     </row>
@@ -2293,10 +2292,10 @@
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>0.57562740000000001</v>
       </c>
     </row>
@@ -2304,10 +2303,10 @@
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>0.56602140000000001</v>
       </c>
     </row>
@@ -2315,10 +2314,10 @@
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>0.59291654999999999</v>
       </c>
     </row>
@@ -2326,10 +2325,10 @@
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0.58523183999999995</v>
       </c>
     </row>
@@ -2337,10 +2336,10 @@
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>0.57932234000000005</v>
       </c>
     </row>
@@ -2348,10 +2347,10 @@
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>0.56601064999999995</v>
       </c>
     </row>
@@ -2359,10 +2358,10 @@
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>0.56083494</v>
       </c>
     </row>
@@ -2370,10 +2369,10 @@
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>0.59717419999999999</v>
       </c>
     </row>
@@ -2381,10 +2380,10 @@
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>0.57953363999999996</v>
       </c>
     </row>
@@ -2392,10 +2391,10 @@
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <v>0.57709633999999999</v>
       </c>
     </row>
@@ -2403,10 +2402,10 @@
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>0.56230073999999997</v>
       </c>
     </row>
@@ -2414,10 +2413,10 @@
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>0.59516263000000003</v>
       </c>
     </row>
@@ -2425,10 +2424,10 @@
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>0.49277957999999999</v>
       </c>
     </row>
@@ -2436,10 +2435,10 @@
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>0.55917260000000002</v>
       </c>
     </row>
@@ -2447,10 +2446,10 @@
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>0.56051050000000002</v>
       </c>
     </row>
@@ -2458,10 +2457,10 @@
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>0.55153185000000005</v>
       </c>
     </row>
@@ -2469,10 +2468,10 @@
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>0.56498689999999996</v>
       </c>
     </row>
@@ -2480,10 +2479,10 @@
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>0.53164493999999995</v>
       </c>
     </row>
@@ -2491,10 +2490,10 @@
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="2">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>0.58029929999999996</v>
       </c>
     </row>
@@ -2502,10 +2501,10 @@
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="2">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>0.56712574000000004</v>
       </c>
     </row>
@@ -2513,10 +2512,10 @@
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>0.56956415999999999</v>
       </c>
     </row>
@@ -2524,10 +2523,10 @@
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>0.59146505999999999</v>
       </c>
     </row>
@@ -2535,10 +2534,10 @@
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="2">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>0.55651810000000002</v>
       </c>
     </row>
@@ -2546,10 +2545,10 @@
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>0.59014929999999999</v>
       </c>
     </row>
@@ -2557,10 +2556,10 @@
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>0.55226993999999996</v>
       </c>
     </row>
@@ -2568,10 +2567,10 @@
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>0.52554540000000005</v>
       </c>
     </row>
@@ -2579,10 +2578,10 @@
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>0.59577389999999997</v>
       </c>
     </row>
@@ -2590,10 +2589,10 @@
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>0.57454972999999998</v>
       </c>
     </row>
@@ -2601,10 +2600,10 @@
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="2">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>0.53815869999999999</v>
       </c>
     </row>
@@ -2612,10 +2611,10 @@
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>0.56404569999999998</v>
       </c>
     </row>
@@ -2623,10 +2622,10 @@
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>0.56609774000000002</v>
       </c>
     </row>
@@ -2634,10 +2633,10 @@
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="2">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>0.53644687000000002</v>
       </c>
     </row>
@@ -2645,10 +2644,10 @@
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="2">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>0.58994513999999998</v>
       </c>
     </row>
@@ -2656,10 +2655,10 @@
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>0.60112023000000003</v>
       </c>
     </row>
@@ -2667,10 +2666,10 @@
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="2">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>0.58200525999999997</v>
       </c>
     </row>
@@ -2678,10 +2677,10 @@
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="2">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
         <v>0.60078240000000005</v>
       </c>
     </row>
@@ -2689,10 +2688,10 @@
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="2">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>0.5706021</v>
       </c>
     </row>
@@ -2700,10 +2699,10 @@
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
         <v>0.57005790000000001</v>
       </c>
     </row>
@@ -2711,10 +2710,10 @@
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>0.517984</v>
       </c>
     </row>
@@ -2722,10 +2721,10 @@
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>0.54768890000000003</v>
       </c>
     </row>
@@ -2733,10 +2732,10 @@
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>0.58927165999999997</v>
       </c>
     </row>
@@ -2744,10 +2743,10 @@
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
         <v>0.58360559999999995</v>
       </c>
     </row>
@@ -2755,10 +2754,10 @@
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>0.57877970000000001</v>
       </c>
     </row>
@@ -2766,10 +2765,10 @@
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="2">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
         <v>0.54267500000000002</v>
       </c>
     </row>
@@ -2777,10 +2776,10 @@
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="2">
-        <v>0</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
         <v>0.57371989999999995</v>
       </c>
     </row>
@@ -2788,10 +2787,10 @@
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="2">
-        <v>0</v>
-      </c>
-      <c r="C83" s="2">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
         <v>0.55778139999999998</v>
       </c>
     </row>
@@ -2799,10 +2798,10 @@
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="2">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
         <v>0.59988680000000005</v>
       </c>
     </row>
@@ -2810,10 +2809,10 @@
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
         <v>0.5926593</v>
       </c>
     </row>
@@ -2821,10 +2820,10 @@
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="2">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
         <v>0.55963180000000001</v>
       </c>
     </row>
@@ -2832,10 +2831,10 @@
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="2">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>0.54901712999999996</v>
       </c>
     </row>
@@ -2843,10 +2842,10 @@
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="2">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>0.58264760000000004</v>
       </c>
     </row>
@@ -2854,10 +2853,10 @@
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="2">
-        <v>1</v>
-      </c>
-      <c r="C89" s="2">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
         <v>0.57240590000000002</v>
       </c>
     </row>
@@ -2865,10 +2864,10 @@
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="2">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
         <v>0.54796440000000002</v>
       </c>
     </row>
@@ -2876,10 +2875,10 @@
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="2">
-        <v>1</v>
-      </c>
-      <c r="C91" s="2">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>0.555199</v>
       </c>
     </row>
@@ -2887,10 +2886,10 @@
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="2">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
         <v>0.55899286000000004</v>
       </c>
     </row>
@@ -2898,10 +2897,10 @@
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-      <c r="C93" s="2">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <v>0.58203125</v>
       </c>
     </row>
@@ -2909,10 +2908,10 @@
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>0.58252674000000004</v>
       </c>
     </row>
@@ -2920,10 +2919,10 @@
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="2">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>0.59700244999999996</v>
       </c>
     </row>
@@ -2931,10 +2930,10 @@
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="2">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>0.57678014</v>
       </c>
     </row>
@@ -2942,10 +2941,10 @@
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="2">
-        <v>1</v>
-      </c>
-      <c r="C97" s="2">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>0.58843060000000003</v>
       </c>
     </row>
@@ -2953,10 +2952,10 @@
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="2">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
         <v>0.54648779999999997</v>
       </c>
     </row>
@@ -2964,10 +2963,10 @@
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="2">
-        <v>1</v>
-      </c>
-      <c r="C99" s="2">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
         <v>0.57787770000000005</v>
       </c>
     </row>
@@ -2975,10 +2974,10 @@
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="2">
-        <v>1</v>
-      </c>
-      <c r="C100" s="2">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
         <v>0.56353010000000003</v>
       </c>
     </row>
@@ -2986,10 +2985,10 @@
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="2">
-        <v>1</v>
-      </c>
-      <c r="C101" s="2">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>0.55083024999999997</v>
       </c>
     </row>
@@ -2997,10 +2996,10 @@
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="2">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
         <v>0.61951339999999999</v>
       </c>
     </row>
@@ -3008,10 +3007,10 @@
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
         <v>0.57711493999999997</v>
       </c>
     </row>
@@ -3019,10 +3018,10 @@
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="2">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
         <v>0.55015033000000002</v>
       </c>
     </row>
@@ -3030,10 +3029,10 @@
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="2">
-        <v>1</v>
-      </c>
-      <c r="C105" s="2">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
         <v>0.58547574000000002</v>
       </c>
     </row>
@@ -3041,10 +3040,10 @@
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="2">
-        <v>1</v>
-      </c>
-      <c r="C106" s="2">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
         <v>0.54037725999999997</v>
       </c>
     </row>
@@ -3052,10 +3051,10 @@
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-      <c r="C107" s="2">
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
         <v>0.56472080000000002</v>
       </c>
     </row>
@@ -3063,10 +3062,10 @@
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="2">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>0.54521984000000001</v>
       </c>
     </row>
@@ -3074,10 +3073,10 @@
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="2">
-        <v>0</v>
-      </c>
-      <c r="C109" s="2">
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
         <v>0.58167917000000002</v>
       </c>
     </row>
@@ -3085,10 +3084,10 @@
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="2">
-        <v>0</v>
-      </c>
-      <c r="C110" s="2">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
         <v>0.46305839999999998</v>
       </c>
     </row>
@@ -3096,10 +3095,10 @@
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="2">
-        <v>1</v>
-      </c>
-      <c r="C111" s="2">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
         <v>0.59067139999999996</v>
       </c>
     </row>
@@ -3107,10 +3106,10 @@
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="2">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
         <v>0.58018773999999995</v>
       </c>
     </row>
@@ -3118,10 +3117,10 @@
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="2">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
         <v>0.56936059999999999</v>
       </c>
     </row>
@@ -3129,10 +3128,10 @@
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="2">
-        <v>1</v>
-      </c>
-      <c r="C114" s="2">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
         <v>0.58223930000000002</v>
       </c>
     </row>
@@ -3140,10 +3139,10 @@
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="2">
-        <v>0</v>
-      </c>
-      <c r="C115" s="2">
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
         <v>0.59354435999999999</v>
       </c>
     </row>
@@ -3151,10 +3150,10 @@
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="2">
-        <v>1</v>
-      </c>
-      <c r="C116" s="2">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>0.57133703999999996</v>
       </c>
     </row>
@@ -3162,10 +3161,10 @@
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="2">
-        <v>1</v>
-      </c>
-      <c r="C117" s="2">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>0.55272955000000001</v>
       </c>
     </row>
@@ -3173,10 +3172,10 @@
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="2">
-        <v>1</v>
-      </c>
-      <c r="C118" s="2">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>0.56320689999999995</v>
       </c>
     </row>
@@ -3184,10 +3183,10 @@
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="2">
-        <v>1</v>
-      </c>
-      <c r="C119" s="2">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
         <v>0.60918609999999995</v>
       </c>
     </row>
@@ -3195,10 +3194,10 @@
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="2">
-        <v>1</v>
-      </c>
-      <c r="C120" s="2">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
         <v>0.55622696999999999</v>
       </c>
     </row>
@@ -3206,10 +3205,10 @@
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="2">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
         <v>0.55001080000000002</v>
       </c>
     </row>
@@ -3217,10 +3216,10 @@
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="2">
-        <v>1</v>
-      </c>
-      <c r="C122" s="2">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
         <v>0.55374069999999997</v>
       </c>
     </row>
@@ -3228,10 +3227,10 @@
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="2">
-        <v>1</v>
-      </c>
-      <c r="C123" s="2">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
         <v>0.53792490000000004</v>
       </c>
     </row>
@@ -3239,10 +3238,10 @@
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="2">
-        <v>1</v>
-      </c>
-      <c r="C124" s="2">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
         <v>0.56968545999999998</v>
       </c>
     </row>
@@ -3250,10 +3249,10 @@
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="2">
-        <v>0</v>
-      </c>
-      <c r="C125" s="2">
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
         <v>0.58723320000000001</v>
       </c>
     </row>
@@ -3261,10 +3260,10 @@
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="2">
-        <v>1</v>
-      </c>
-      <c r="C126" s="2">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
         <v>0.56499284999999999</v>
       </c>
     </row>
@@ -3272,10 +3271,10 @@
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="2">
-        <v>1</v>
-      </c>
-      <c r="C127" s="2">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
         <v>0.56925040000000005</v>
       </c>
     </row>
@@ -3283,10 +3282,10 @@
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="2">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
         <v>0.56898046000000002</v>
       </c>
     </row>
@@ -3294,10 +3293,10 @@
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="2">
-        <v>1</v>
-      </c>
-      <c r="C129" s="2">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
         <v>0.55916666999999998</v>
       </c>
     </row>
@@ -3305,10 +3304,10 @@
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="2">
-        <v>0</v>
-      </c>
-      <c r="C130" s="2">
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
         <v>0.53803029999999996</v>
       </c>
     </row>
@@ -3316,10 +3315,10 @@
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="2">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
         <v>0.5239511</v>
       </c>
     </row>
@@ -3327,10 +3326,10 @@
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="2">
-        <v>1</v>
-      </c>
-      <c r="C132" s="2">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
         <v>0.57389939999999995</v>
       </c>
     </row>
@@ -3338,10 +3337,10 @@
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="2">
-        <v>1</v>
-      </c>
-      <c r="C133" s="2">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
         <v>0.55936295000000003</v>
       </c>
     </row>
@@ -3349,10 +3348,10 @@
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="2">
-        <v>1</v>
-      </c>
-      <c r="C134" s="2">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
         <v>0.54809620000000003</v>
       </c>
     </row>
@@ -3360,10 +3359,10 @@
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="2">
-        <v>0</v>
-      </c>
-      <c r="C135" s="2">
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
         <v>0.59022200000000002</v>
       </c>
     </row>
@@ -3371,10 +3370,10 @@
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="2">
-        <v>1</v>
-      </c>
-      <c r="C136" s="2">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
         <v>0.51206976000000004</v>
       </c>
     </row>
@@ -3382,10 +3381,10 @@
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="2">
-        <v>0</v>
-      </c>
-      <c r="C137" s="2">
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
         <v>0.59758436999999998</v>
       </c>
     </row>
@@ -3393,10 +3392,10 @@
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="2">
-        <v>1</v>
-      </c>
-      <c r="C138" s="2">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
         <v>0.55195015999999997</v>
       </c>
     </row>
@@ -3404,10 +3403,10 @@
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="2">
-        <v>1</v>
-      </c>
-      <c r="C139" s="2">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>0.55306699999999998</v>
       </c>
     </row>
@@ -3415,10 +3414,10 @@
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="2">
-        <v>0</v>
-      </c>
-      <c r="C140" s="2">
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
         <v>0.58419299999999996</v>
       </c>
     </row>
@@ -3426,10 +3425,10 @@
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="2">
-        <v>1</v>
-      </c>
-      <c r="C141" s="2">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
         <v>0.56537340000000003</v>
       </c>
     </row>
@@ -3437,10 +3436,10 @@
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="2">
-        <v>1</v>
-      </c>
-      <c r="C142" s="2">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
         <v>0.53663974999999997</v>
       </c>
     </row>
@@ -3448,10 +3447,10 @@
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="2">
-        <v>1</v>
-      </c>
-      <c r="C143" s="2">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
         <v>0.57843392999999999</v>
       </c>
     </row>
@@ -3459,10 +3458,10 @@
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="2">
-        <v>1</v>
-      </c>
-      <c r="C144" s="2">
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
         <v>0.59773725</v>
       </c>
     </row>
@@ -3470,10 +3469,10 @@
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="2">
-        <v>1</v>
-      </c>
-      <c r="C145" s="2">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
         <v>0.54414839999999998</v>
       </c>
     </row>
@@ -3481,10 +3480,10 @@
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="2">
-        <v>1</v>
-      </c>
-      <c r="C146" s="2">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
         <v>0.5686485</v>
       </c>
     </row>
@@ -3492,10 +3491,10 @@
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="2">
-        <v>1</v>
-      </c>
-      <c r="C147" s="2">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
         <v>0.57201599999999997</v>
       </c>
     </row>
@@ -3503,10 +3502,10 @@
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="2">
-        <v>1</v>
-      </c>
-      <c r="C148" s="2">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
         <v>0.53979635000000004</v>
       </c>
     </row>
@@ -3514,10 +3513,10 @@
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="2">
-        <v>1</v>
-      </c>
-      <c r="C149" s="2">
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
         <v>0.52114165000000001</v>
       </c>
     </row>
@@ -3525,10 +3524,10 @@
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="2">
-        <v>0</v>
-      </c>
-      <c r="C150" s="2">
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
         <v>0.55160235999999996</v>
       </c>
     </row>
@@ -3536,10 +3535,10 @@
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="2">
-        <v>1</v>
-      </c>
-      <c r="C151" s="2">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
         <v>0.59358599999999995</v>
       </c>
     </row>
@@ -3547,10 +3546,10 @@
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="2">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
         <v>0.54871017</v>
       </c>
     </row>
@@ -3558,10 +3557,10 @@
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="2">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
         <v>0.56012729999999999</v>
       </c>
     </row>
@@ -3569,10 +3568,10 @@
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="2">
-        <v>1</v>
-      </c>
-      <c r="C154" s="2">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
         <v>0.59051626999999995</v>
       </c>
     </row>
@@ -3580,10 +3579,10 @@
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B155" s="2">
-        <v>1</v>
-      </c>
-      <c r="C155" s="2">
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
         <v>0.50683520000000004</v>
       </c>
     </row>
@@ -3591,10 +3590,10 @@
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="2">
-        <v>1</v>
-      </c>
-      <c r="C156" s="2">
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
         <v>0.56022050000000001</v>
       </c>
     </row>
@@ -3602,10 +3601,10 @@
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="2">
-        <v>1</v>
-      </c>
-      <c r="C157" s="2">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
         <v>0.57722370000000001</v>
       </c>
     </row>
@@ -3613,10 +3612,10 @@
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B158" s="2">
-        <v>1</v>
-      </c>
-      <c r="C158" s="2">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
         <v>0.58509250000000002</v>
       </c>
     </row>
@@ -3624,10 +3623,10 @@
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="2">
-        <v>1</v>
-      </c>
-      <c r="C159" s="2">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
         <v>0.59557740000000003</v>
       </c>
     </row>
@@ -3635,10 +3634,10 @@
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="2">
-        <v>1</v>
-      </c>
-      <c r="C160" s="2">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
         <v>0.55634815000000004</v>
       </c>
     </row>
@@ -3646,10 +3645,10 @@
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B161" s="2">
-        <v>1</v>
-      </c>
-      <c r="C161" s="2">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
         <v>0.52581893999999996</v>
       </c>
     </row>
@@ -3657,10 +3656,10 @@
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="2">
-        <v>1</v>
-      </c>
-      <c r="C162" s="2">
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
         <v>0.54491999999999996</v>
       </c>
     </row>
@@ -3668,10 +3667,10 @@
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="2">
-        <v>1</v>
-      </c>
-      <c r="C163" s="2">
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
         <v>0.51582276999999999</v>
       </c>
     </row>
@@ -3679,10 +3678,10 @@
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B164" s="2">
-        <v>1</v>
-      </c>
-      <c r="C164" s="2">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
         <v>0.55721735999999999</v>
       </c>
     </row>
@@ -3690,10 +3689,10 @@
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="2">
-        <v>1</v>
-      </c>
-      <c r="C165" s="2">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
         <v>0.59806369999999998</v>
       </c>
     </row>
@@ -3701,10 +3700,10 @@
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B166" s="2">
-        <v>1</v>
-      </c>
-      <c r="C166" s="2">
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
         <v>0.55749029999999999</v>
       </c>
     </row>
@@ -3712,10 +3711,10 @@
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B167" s="2">
-        <v>1</v>
-      </c>
-      <c r="C167" s="2">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
         <v>0.58650869999999999</v>
       </c>
     </row>
@@ -3723,10 +3722,10 @@
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B168" s="2">
-        <v>1</v>
-      </c>
-      <c r="C168" s="2">
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
         <v>0.56387525999999999</v>
       </c>
     </row>
@@ -3734,10 +3733,10 @@
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B169" s="2">
-        <v>1</v>
-      </c>
-      <c r="C169" s="2">
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
         <v>0.53128220000000004</v>
       </c>
     </row>
@@ -3745,10 +3744,10 @@
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B170" s="2">
-        <v>1</v>
-      </c>
-      <c r="C170" s="2">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
         <v>0.56645679999999998</v>
       </c>
     </row>
@@ -3756,10 +3755,10 @@
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B171" s="2">
-        <v>1</v>
-      </c>
-      <c r="C171" s="2">
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
         <v>0.54346912999999997</v>
       </c>
     </row>
@@ -3767,10 +3766,10 @@
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B172" s="2">
-        <v>1</v>
-      </c>
-      <c r="C172" s="2">
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
         <v>0.51437630000000001</v>
       </c>
     </row>
@@ -3778,10 +3777,10 @@
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="2">
-        <v>1</v>
-      </c>
-      <c r="C173" s="2">
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
         <v>0.5966245</v>
       </c>
     </row>
@@ -3789,10 +3788,10 @@
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B174" s="2">
-        <v>1</v>
-      </c>
-      <c r="C174" s="2">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
         <v>0.54974290000000003</v>
       </c>
     </row>
@@ -3800,10 +3799,10 @@
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B175" s="2">
-        <v>0</v>
-      </c>
-      <c r="C175" s="2">
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
         <v>0.58161812999999996</v>
       </c>
     </row>
@@ -3811,10 +3810,10 @@
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B176" s="2">
-        <v>1</v>
-      </c>
-      <c r="C176" s="2">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
         <v>0.58793620000000002</v>
       </c>
     </row>
@@ -3822,10 +3821,10 @@
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B177" s="2">
-        <v>1</v>
-      </c>
-      <c r="C177" s="2">
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
         <v>0.54335699999999998</v>
       </c>
     </row>
@@ -3833,10 +3832,10 @@
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B178" s="2">
-        <v>1</v>
-      </c>
-      <c r="C178" s="2">
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
         <v>0.56854749999999998</v>
       </c>
     </row>
@@ -3844,10 +3843,10 @@
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="2">
-        <v>1</v>
-      </c>
-      <c r="C179" s="2">
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
         <v>0.55607280000000003</v>
       </c>
     </row>
@@ -3855,10 +3854,10 @@
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B180" s="2">
-        <v>1</v>
-      </c>
-      <c r="C180" s="2">
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
         <v>0.56063414</v>
       </c>
     </row>
@@ -3866,10 +3865,10 @@
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B181" s="2">
-        <v>1</v>
-      </c>
-      <c r="C181" s="2">
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
         <v>0.57313829999999999</v>
       </c>
     </row>
@@ -3877,10 +3876,10 @@
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B182" s="2">
-        <v>1</v>
-      </c>
-      <c r="C182" s="2">
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
         <v>0.59515494000000002</v>
       </c>
     </row>
@@ -3888,10 +3887,10 @@
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B183" s="2">
-        <v>1</v>
-      </c>
-      <c r="C183" s="2">
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
         <v>0.54458565000000003</v>
       </c>
     </row>
@@ -3899,10 +3898,10 @@
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B184" s="2">
-        <v>0</v>
-      </c>
-      <c r="C184" s="2">
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
         <v>0.56224173</v>
       </c>
     </row>
@@ -3910,10 +3909,10 @@
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B185" s="2">
-        <v>1</v>
-      </c>
-      <c r="C185" s="2">
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
         <v>0.5800495</v>
       </c>
     </row>
@@ -3921,10 +3920,10 @@
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B186" s="2">
-        <v>1</v>
-      </c>
-      <c r="C186" s="2">
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
         <v>0.55443010000000004</v>
       </c>
     </row>
@@ -3932,10 +3931,10 @@
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B187" s="2">
-        <v>0</v>
-      </c>
-      <c r="C187" s="2">
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
         <v>0.61925757000000003</v>
       </c>
     </row>
@@ -3943,10 +3942,10 @@
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B188" s="2">
-        <v>0</v>
-      </c>
-      <c r="C188" s="2">
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
         <v>0.57915854</v>
       </c>
     </row>
@@ -3954,10 +3953,10 @@
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B189" s="2">
-        <v>0</v>
-      </c>
-      <c r="C189" s="2">
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
         <v>0.53700740000000002</v>
       </c>
     </row>
@@ -3965,10 +3964,10 @@
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="2">
-        <v>1</v>
-      </c>
-      <c r="C190" s="2">
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
         <v>0.59006214000000001</v>
       </c>
     </row>
@@ -3976,10 +3975,10 @@
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B191" s="2">
-        <v>1</v>
-      </c>
-      <c r="C191" s="2">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
         <v>0.55215716000000004</v>
       </c>
     </row>
@@ -3987,10 +3986,10 @@
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B192" s="2">
-        <v>1</v>
-      </c>
-      <c r="C192" s="2">
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
         <v>0.58565290000000003</v>
       </c>
     </row>
@@ -3998,10 +3997,10 @@
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="2">
-        <v>1</v>
-      </c>
-      <c r="C193" s="2">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
         <v>0.57964550000000004</v>
       </c>
     </row>
@@ -4009,10 +4008,10 @@
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B194" s="2">
-        <v>1</v>
-      </c>
-      <c r="C194" s="2">
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
         <v>0.54479560000000005</v>
       </c>
     </row>
@@ -4020,10 +4019,10 @@
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B195" s="2">
-        <v>1</v>
-      </c>
-      <c r="C195" s="2">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
         <v>0.52896410000000005</v>
       </c>
     </row>
@@ -4031,10 +4030,10 @@
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B196" s="2">
-        <v>1</v>
-      </c>
-      <c r="C196" s="2">
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
         <v>0.57034165000000003</v>
       </c>
     </row>
@@ -4042,10 +4041,10 @@
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B197" s="2">
-        <v>1</v>
-      </c>
-      <c r="C197" s="2">
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
         <v>0.56004345</v>
       </c>
     </row>
@@ -4053,10 +4052,10 @@
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B198" s="2">
-        <v>1</v>
-      </c>
-      <c r="C198" s="2">
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
         <v>0.56905850000000002</v>
       </c>
     </row>
@@ -4064,10 +4063,10 @@
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B199" s="2">
-        <v>1</v>
-      </c>
-      <c r="C199" s="2">
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
         <v>0.5616717</v>
       </c>
     </row>
@@ -4075,10 +4074,10 @@
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B200" s="2">
-        <v>1</v>
-      </c>
-      <c r="C200" s="2">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
         <v>0.540269</v>
       </c>
     </row>
@@ -4086,10 +4085,10 @@
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B201" s="2">
-        <v>1</v>
-      </c>
-      <c r="C201" s="2">
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
         <v>0.57765149999999998</v>
       </c>
     </row>
@@ -4097,10 +4096,10 @@
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B202" s="2">
-        <v>1</v>
-      </c>
-      <c r="C202" s="2">
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
         <v>0.56318080000000004</v>
       </c>
     </row>
@@ -4108,10 +4107,10 @@
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B203" s="2">
-        <v>0</v>
-      </c>
-      <c r="C203" s="2">
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
         <v>0.57790047</v>
       </c>
     </row>
@@ -4119,10 +4118,10 @@
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B204" s="2">
-        <v>1</v>
-      </c>
-      <c r="C204" s="2">
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
         <v>0.5484907</v>
       </c>
     </row>
@@ -4130,10 +4129,10 @@
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B205" s="2">
-        <v>0</v>
-      </c>
-      <c r="C205" s="2">
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
         <v>0.54414039999999997</v>
       </c>
     </row>
@@ -4141,10 +4140,10 @@
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B206" s="2">
-        <v>1</v>
-      </c>
-      <c r="C206" s="2">
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
         <v>0.56081499999999995</v>
       </c>
     </row>
@@ -4152,10 +4151,10 @@
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B207" s="2">
-        <v>1</v>
-      </c>
-      <c r="C207" s="2">
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
         <v>0.54479270000000002</v>
       </c>
     </row>
@@ -4163,10 +4162,10 @@
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B208" s="2">
-        <v>1</v>
-      </c>
-      <c r="C208" s="2">
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
         <v>0.56528970000000001</v>
       </c>
     </row>
@@ -4174,10 +4173,10 @@
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B209" s="2">
-        <v>1</v>
-      </c>
-      <c r="C209" s="2">
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
         <v>0.56747424999999996</v>
       </c>
     </row>
@@ -4185,10 +4184,10 @@
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B210" s="2">
-        <v>0</v>
-      </c>
-      <c r="C210" s="2">
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
         <v>0.56298590000000004</v>
       </c>
     </row>
@@ -4196,10 +4195,10 @@
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B211" s="2">
-        <v>1</v>
-      </c>
-      <c r="C211" s="2">
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
         <v>0.53022440000000004</v>
       </c>
     </row>
@@ -4207,10 +4206,10 @@
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B212" s="2">
-        <v>1</v>
-      </c>
-      <c r="C212" s="2">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
         <v>0.56433940000000005</v>
       </c>
     </row>
@@ -4218,10 +4217,10 @@
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B213" s="2">
-        <v>0</v>
-      </c>
-      <c r="C213" s="2">
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
         <v>0.57986826000000002</v>
       </c>
     </row>
@@ -4229,10 +4228,10 @@
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B214" s="2">
-        <v>0</v>
-      </c>
-      <c r="C214" s="2">
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
         <v>0.57833959999999995</v>
       </c>
     </row>
@@ -4240,10 +4239,10 @@
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B215" s="2">
-        <v>1</v>
-      </c>
-      <c r="C215" s="2">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
         <v>0.54026383</v>
       </c>
     </row>
@@ -4251,10 +4250,10 @@
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B216" s="2">
-        <v>1</v>
-      </c>
-      <c r="C216" s="2">
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
         <v>0.55916834000000004</v>
       </c>
     </row>
@@ -4262,10 +4261,10 @@
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B217" s="2">
-        <v>1</v>
-      </c>
-      <c r="C217" s="2">
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
         <v>0.58179957000000004</v>
       </c>
     </row>
@@ -4273,10 +4272,10 @@
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B218" s="2">
-        <v>1</v>
-      </c>
-      <c r="C218" s="2">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
         <v>0.56913376000000004</v>
       </c>
     </row>
@@ -4284,10 +4283,10 @@
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B219" s="2">
-        <v>1</v>
-      </c>
-      <c r="C219" s="2">
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
         <v>0.54588959999999997</v>
       </c>
     </row>
@@ -4295,10 +4294,10 @@
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B220" s="2">
-        <v>1</v>
-      </c>
-      <c r="C220" s="2">
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
         <v>0.58958935999999995</v>
       </c>
     </row>
@@ -4306,10 +4305,10 @@
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B221" s="2">
-        <v>1</v>
-      </c>
-      <c r="C221" s="2">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
         <v>0.56285876000000001</v>
       </c>
     </row>
@@ -4317,10 +4316,10 @@
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B222" s="2">
-        <v>1</v>
-      </c>
-      <c r="C222" s="2">
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
         <v>0.58964854</v>
       </c>
     </row>
@@ -4328,10 +4327,10 @@
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B223" s="2">
-        <v>1</v>
-      </c>
-      <c r="C223" s="2">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
         <v>0.5668782</v>
       </c>
     </row>
@@ -4339,10 +4338,10 @@
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B224" s="2">
-        <v>1</v>
-      </c>
-      <c r="C224" s="2">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
         <v>0.54907346000000001</v>
       </c>
     </row>
@@ -4350,10 +4349,10 @@
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B225" s="2">
-        <v>1</v>
-      </c>
-      <c r="C225" s="2">
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
         <v>0.51797484999999999</v>
       </c>
     </row>
@@ -4361,10 +4360,10 @@
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B226" s="2">
-        <v>1</v>
-      </c>
-      <c r="C226" s="2">
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
         <v>0.55135875999999995</v>
       </c>
     </row>
@@ -4372,10 +4371,10 @@
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B227" s="2">
-        <v>1</v>
-      </c>
-      <c r="C227" s="2">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
         <v>0.51941119999999996</v>
       </c>
     </row>
@@ -4383,10 +4382,10 @@
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B228" s="2">
-        <v>1</v>
-      </c>
-      <c r="C228" s="2">
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
         <v>0.54422729999999997</v>
       </c>
     </row>
@@ -4394,10 +4393,10 @@
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B229" s="2">
-        <v>1</v>
-      </c>
-      <c r="C229" s="2">
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
         <v>0.56904714999999995</v>
       </c>
     </row>
@@ -4405,10 +4404,10 @@
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B230" s="2">
-        <v>1</v>
-      </c>
-      <c r="C230" s="2">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
         <v>0.56149757</v>
       </c>
     </row>
@@ -4416,10 +4415,10 @@
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B231" s="2">
-        <v>1</v>
-      </c>
-      <c r="C231" s="2">
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
         <v>0.56116193999999997</v>
       </c>
     </row>
@@ -4427,10 +4426,10 @@
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B232" s="2">
-        <v>1</v>
-      </c>
-      <c r="C232" s="2">
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
         <v>0.58984060000000005</v>
       </c>
     </row>
@@ -4438,10 +4437,10 @@
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B233" s="2">
-        <v>1</v>
-      </c>
-      <c r="C233" s="2">
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
         <v>0.57807090000000005</v>
       </c>
     </row>
@@ -4449,10 +4448,10 @@
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B234" s="2">
-        <v>1</v>
-      </c>
-      <c r="C234" s="2">
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
         <v>0.56433610000000001</v>
       </c>
     </row>
@@ -4460,10 +4459,10 @@
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B235" s="2">
-        <v>1</v>
-      </c>
-      <c r="C235" s="2">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
         <v>0.56127450000000001</v>
       </c>
     </row>
@@ -4471,10 +4470,10 @@
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B236" s="2">
-        <v>0</v>
-      </c>
-      <c r="C236" s="2">
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
         <v>0.54881226999999999</v>
       </c>
     </row>
@@ -4482,10 +4481,10 @@
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B237" s="2">
-        <v>1</v>
-      </c>
-      <c r="C237" s="2">
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
         <v>0.56718886000000002</v>
       </c>
     </row>
@@ -4493,10 +4492,10 @@
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B238" s="2">
-        <v>1</v>
-      </c>
-      <c r="C238" s="2">
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
         <v>0.57997180000000004</v>
       </c>
     </row>
@@ -4504,10 +4503,10 @@
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B239" s="2">
-        <v>1</v>
-      </c>
-      <c r="C239" s="2">
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
         <v>0.57561790000000002</v>
       </c>
     </row>
@@ -4515,10 +4514,10 @@
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B240" s="2">
-        <v>1</v>
-      </c>
-      <c r="C240" s="2">
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
         <v>0.52632760000000001</v>
       </c>
     </row>
@@ -4526,10 +4525,10 @@
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B241" s="2">
-        <v>1</v>
-      </c>
-      <c r="C241" s="2">
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
         <v>0.59518784000000002</v>
       </c>
     </row>
@@ -4537,10 +4536,10 @@
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B242" s="2">
-        <v>0</v>
-      </c>
-      <c r="C242" s="2">
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
         <v>0.56947665999999997</v>
       </c>
     </row>
@@ -4548,10 +4547,10 @@
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B243" s="2">
-        <v>1</v>
-      </c>
-      <c r="C243" s="2">
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
         <v>0.59167729999999996</v>
       </c>
     </row>
@@ -4559,10 +4558,10 @@
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B244" s="2">
-        <v>1</v>
-      </c>
-      <c r="C244" s="2">
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
         <v>0.57355920000000005</v>
       </c>
     </row>
@@ -4570,10 +4569,10 @@
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B245" s="2">
-        <v>1</v>
-      </c>
-      <c r="C245" s="2">
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
         <v>0.53309119999999999</v>
       </c>
     </row>
@@ -4581,10 +4580,10 @@
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B246" s="2">
-        <v>1</v>
-      </c>
-      <c r="C246" s="2">
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
         <v>0.57508459999999995</v>
       </c>
     </row>
@@ -4592,10 +4591,10 @@
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B247" s="2">
-        <v>1</v>
-      </c>
-      <c r="C247" s="2">
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
         <v>0.55862900000000004</v>
       </c>
     </row>
@@ -4603,10 +4602,10 @@
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="2">
-        <v>0</v>
-      </c>
-      <c r="C248" s="2">
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
         <v>0.5606911</v>
       </c>
     </row>
@@ -4614,10 +4613,10 @@
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B249" s="2">
-        <v>1</v>
-      </c>
-      <c r="C249" s="2">
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
         <v>0.53734623999999998</v>
       </c>
     </row>
@@ -4625,10 +4624,10 @@
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B250" s="2">
-        <v>1</v>
-      </c>
-      <c r="C250" s="2">
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
         <v>0.57089630000000002</v>
       </c>
     </row>
@@ -4636,10 +4635,10 @@
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B251" s="2">
-        <v>1</v>
-      </c>
-      <c r="C251" s="2">
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
         <v>0.59320470000000003</v>
       </c>
     </row>
@@ -4647,10 +4646,10 @@
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B252" s="2">
-        <v>1</v>
-      </c>
-      <c r="C252" s="2">
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
         <v>0.58246220000000004</v>
       </c>
     </row>
@@ -4658,10 +4657,10 @@
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B253" s="2">
-        <v>1</v>
-      </c>
-      <c r="C253" s="2">
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
         <v>0.5503247</v>
       </c>
     </row>
@@ -4669,10 +4668,10 @@
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B254" s="2">
-        <v>1</v>
-      </c>
-      <c r="C254" s="2">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
         <v>0.57769566999999999</v>
       </c>
     </row>
@@ -4680,10 +4679,10 @@
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B255" s="2">
-        <v>0</v>
-      </c>
-      <c r="C255" s="2">
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
         <v>0.57289900000000005</v>
       </c>
     </row>
@@ -4691,10 +4690,10 @@
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B256" s="2">
-        <v>1</v>
-      </c>
-      <c r="C256" s="2">
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
         <v>0.59947616000000004</v>
       </c>
     </row>
@@ -4702,10 +4701,10 @@
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B257" s="2">
-        <v>1</v>
-      </c>
-      <c r="C257" s="2">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
         <v>0.59165645</v>
       </c>
     </row>
@@ -4713,10 +4712,10 @@
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B258" s="2">
-        <v>1</v>
-      </c>
-      <c r="C258" s="2">
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
         <v>0.59125954000000003</v>
       </c>
     </row>
@@ -4724,10 +4723,10 @@
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="2">
-        <v>1</v>
-      </c>
-      <c r="C259" s="2">
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
         <v>0.57885379999999997</v>
       </c>
     </row>
@@ -4735,10 +4734,10 @@
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B260" s="2">
-        <v>1</v>
-      </c>
-      <c r="C260" s="2">
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
         <v>0.58463679999999996</v>
       </c>
     </row>
@@ -4746,10 +4745,10 @@
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B261" s="2">
-        <v>1</v>
-      </c>
-      <c r="C261" s="2">
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
         <v>0.54113513000000002</v>
       </c>
     </row>
@@ -4757,10 +4756,10 @@
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B262" s="2">
-        <v>1</v>
-      </c>
-      <c r="C262" s="2">
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
         <v>0.60011150000000002</v>
       </c>
     </row>
@@ -4768,10 +4767,10 @@
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B263" s="2">
-        <v>1</v>
-      </c>
-      <c r="C263" s="2">
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
         <v>0.55277469999999995</v>
       </c>
     </row>
@@ -4779,10 +4778,10 @@
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B264" s="2">
-        <v>1</v>
-      </c>
-      <c r="C264" s="2">
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
         <v>0.57759669999999996</v>
       </c>
     </row>
@@ -4790,10 +4789,10 @@
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B265" s="2">
-        <v>1</v>
-      </c>
-      <c r="C265" s="2">
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
         <v>0.55859800000000004</v>
       </c>
     </row>
@@ -4801,10 +4800,10 @@
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B266" s="2">
-        <v>1</v>
-      </c>
-      <c r="C266" s="2">
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
         <v>0.55821394999999996</v>
       </c>
     </row>
@@ -4812,10 +4811,10 @@
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B267" s="2">
-        <v>1</v>
-      </c>
-      <c r="C267" s="2">
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
         <v>0.60093830000000004</v>
       </c>
     </row>
@@ -4823,10 +4822,10 @@
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B268" s="2">
-        <v>1</v>
-      </c>
-      <c r="C268" s="2">
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
         <v>0.56139439999999996</v>
       </c>
     </row>
@@ -4834,10 +4833,10 @@
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B269" s="2">
-        <v>0</v>
-      </c>
-      <c r="C269" s="2">
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
         <v>0.57023349999999995</v>
       </c>
     </row>
@@ -4845,10 +4844,10 @@
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B270" s="2">
-        <v>1</v>
-      </c>
-      <c r="C270" s="2">
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
         <v>0.54600000000000004</v>
       </c>
     </row>
@@ -4856,10 +4855,10 @@
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B271" s="2">
-        <v>1</v>
-      </c>
-      <c r="C271" s="2">
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
         <v>0.53375625999999998</v>
       </c>
     </row>
@@ -4867,10 +4866,10 @@
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B272" s="2">
-        <v>1</v>
-      </c>
-      <c r="C272" s="2">
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
         <v>0.54033450000000005</v>
       </c>
     </row>
@@ -4878,10 +4877,10 @@
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B273" s="2">
-        <v>0</v>
-      </c>
-      <c r="C273" s="2">
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
         <v>0.57428383999999999</v>
       </c>
     </row>
@@ -4889,10 +4888,10 @@
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B274" s="2">
-        <v>1</v>
-      </c>
-      <c r="C274" s="2">
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
         <v>0.55500620000000001</v>
       </c>
     </row>
@@ -4900,10 +4899,10 @@
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B275" s="2">
-        <v>1</v>
-      </c>
-      <c r="C275" s="2">
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
         <v>0.58751260000000005</v>
       </c>
     </row>
@@ -4911,10 +4910,10 @@
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B276" s="2">
-        <v>1</v>
-      </c>
-      <c r="C276" s="2">
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
         <v>0.55635630000000003</v>
       </c>
     </row>
@@ -4922,10 +4921,10 @@
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B277" s="2">
-        <v>1</v>
-      </c>
-      <c r="C277" s="2">
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
         <v>0.57623409999999997</v>
       </c>
     </row>
@@ -4933,10 +4932,10 @@
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B278" s="2">
-        <v>1</v>
-      </c>
-      <c r="C278" s="2">
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
         <v>0.57761973</v>
       </c>
     </row>
@@ -4944,10 +4943,10 @@
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B279" s="2">
-        <v>1</v>
-      </c>
-      <c r="C279" s="2">
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
         <v>0.54551994999999998</v>
       </c>
     </row>
@@ -4955,10 +4954,10 @@
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B280" s="2">
-        <v>1</v>
-      </c>
-      <c r="C280" s="2">
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
         <v>0.57622682999999997</v>
       </c>
     </row>
@@ -4966,10 +4965,10 @@
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B281" s="2">
-        <v>1</v>
-      </c>
-      <c r="C281" s="2">
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
         <v>0.58665999999999996</v>
       </c>
     </row>
@@ -4977,10 +4976,10 @@
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B282" s="2">
-        <v>1</v>
-      </c>
-      <c r="C282" s="2">
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
         <v>0.58490275999999997</v>
       </c>
     </row>
@@ -4988,10 +4987,10 @@
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B283" s="2">
-        <v>1</v>
-      </c>
-      <c r="C283" s="2">
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
         <v>0.6</v>
       </c>
     </row>
@@ -4999,10 +4998,10 @@
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B284" s="2">
-        <v>0</v>
-      </c>
-      <c r="C284" s="2">
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
         <v>0.56992500000000001</v>
       </c>
     </row>
@@ -5010,10 +5009,10 @@
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B285" s="2">
-        <v>1</v>
-      </c>
-      <c r="C285" s="2">
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
         <v>0.55055240000000005</v>
       </c>
     </row>
@@ -5021,10 +5020,10 @@
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B286" s="2">
-        <v>0</v>
-      </c>
-      <c r="C286" s="2">
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
         <v>0.58870599999999995</v>
       </c>
     </row>
@@ -5032,10 +5031,10 @@
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B287" s="2">
-        <v>1</v>
-      </c>
-      <c r="C287" s="2">
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
         <v>0.57205459999999997</v>
       </c>
     </row>
@@ -5043,10 +5042,10 @@
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B288" s="2">
-        <v>1</v>
-      </c>
-      <c r="C288" s="2">
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
         <v>0.55471842999999998</v>
       </c>
     </row>
@@ -5054,10 +5053,10 @@
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B289" s="2">
-        <v>1</v>
-      </c>
-      <c r="C289" s="2">
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
         <v>0.51990199999999998</v>
       </c>
     </row>
@@ -5065,10 +5064,10 @@
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B290" s="2">
-        <v>1</v>
-      </c>
-      <c r="C290" s="2">
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
         <v>0.56761139999999999</v>
       </c>
     </row>
@@ -5076,10 +5075,10 @@
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B291" s="2">
-        <v>1</v>
-      </c>
-      <c r="C291" s="2">
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
         <v>0.56849249999999996</v>
       </c>
     </row>
@@ -5087,10 +5086,10 @@
       <c r="A292" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B292" s="2">
-        <v>1</v>
-      </c>
-      <c r="C292" s="2">
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
         <v>0.53299339999999995</v>
       </c>
     </row>
@@ -5098,10 +5097,10 @@
       <c r="A293" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B293" s="2">
-        <v>0</v>
-      </c>
-      <c r="C293" s="2">
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
         <v>0.601464</v>
       </c>
     </row>
@@ -5109,10 +5108,10 @@
       <c r="A294" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B294" s="2">
-        <v>1</v>
-      </c>
-      <c r="C294" s="2">
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
         <v>0.53008829999999996</v>
       </c>
     </row>
@@ -5120,10 +5119,10 @@
       <c r="A295" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B295" s="2">
-        <v>1</v>
-      </c>
-      <c r="C295" s="2">
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
         <v>0.59387374000000004</v>
       </c>
     </row>
@@ -5131,10 +5130,10 @@
       <c r="A296" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B296" s="2">
-        <v>1</v>
-      </c>
-      <c r="C296" s="2">
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
         <v>0.57836264000000004</v>
       </c>
     </row>
@@ -5142,10 +5141,10 @@
       <c r="A297" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B297" s="2">
-        <v>1</v>
-      </c>
-      <c r="C297" s="2">
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
         <v>0.53248172999999999</v>
       </c>
     </row>
@@ -5153,10 +5152,10 @@
       <c r="A298" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B298" s="2">
-        <v>1</v>
-      </c>
-      <c r="C298" s="2">
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
         <v>0.54928315000000005</v>
       </c>
     </row>
@@ -5164,10 +5163,10 @@
       <c r="A299" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B299" s="2">
-        <v>1</v>
-      </c>
-      <c r="C299" s="2">
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
         <v>0.55434143999999996</v>
       </c>
     </row>
@@ -5175,10 +5174,10 @@
       <c r="A300" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B300" s="2">
-        <v>1</v>
-      </c>
-      <c r="C300" s="2">
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
         <v>0.58804833999999995</v>
       </c>
     </row>
@@ -5186,10 +5185,10 @@
       <c r="A301" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B301" s="2">
-        <v>1</v>
-      </c>
-      <c r="C301" s="2">
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
         <v>0.59696419999999994</v>
       </c>
     </row>
@@ -5197,10 +5196,10 @@
       <c r="A302" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B302" s="2">
-        <v>1</v>
-      </c>
-      <c r="C302" s="2">
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
         <v>0.58113190000000003</v>
       </c>
     </row>
@@ -5208,10 +5207,10 @@
       <c r="A303" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B303" s="2">
-        <v>1</v>
-      </c>
-      <c r="C303" s="2">
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
         <v>0.57944870000000004</v>
       </c>
     </row>
@@ -5219,10 +5218,10 @@
       <c r="A304" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B304" s="2">
-        <v>1</v>
-      </c>
-      <c r="C304" s="2">
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
         <v>0.57828164000000004</v>
       </c>
     </row>
@@ -5230,10 +5229,10 @@
       <c r="A305" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B305" s="2">
-        <v>1</v>
-      </c>
-      <c r="C305" s="2">
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
         <v>0.56002549999999995</v>
       </c>
     </row>
@@ -5241,10 +5240,10 @@
       <c r="A306" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B306" s="2">
-        <v>1</v>
-      </c>
-      <c r="C306" s="2">
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
         <v>0.49914265000000002</v>
       </c>
     </row>
@@ -5252,10 +5251,10 @@
       <c r="A307" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B307" s="2">
-        <v>1</v>
-      </c>
-      <c r="C307" s="2">
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
         <v>0.59672060000000005</v>
       </c>
     </row>
@@ -5263,10 +5262,10 @@
       <c r="A308" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B308" s="2">
-        <v>1</v>
-      </c>
-      <c r="C308" s="2">
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
         <v>0.58684963000000001</v>
       </c>
     </row>
@@ -5274,10 +5273,10 @@
       <c r="A309" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B309" s="2">
-        <v>0</v>
-      </c>
-      <c r="C309" s="2">
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
         <v>0.55687969999999998</v>
       </c>
     </row>
@@ -5285,10 +5284,10 @@
       <c r="A310" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B310" s="2">
-        <v>1</v>
-      </c>
-      <c r="C310" s="2">
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
         <v>0.50151699999999999</v>
       </c>
     </row>
@@ -5296,10 +5295,10 @@
       <c r="A311" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B311" s="2">
-        <v>1</v>
-      </c>
-      <c r="C311" s="2">
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
         <v>0.57263470000000005</v>
       </c>
     </row>
@@ -5307,10 +5306,10 @@
       <c r="A312" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B312" s="2">
-        <v>0</v>
-      </c>
-      <c r="C312" s="2">
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
         <v>0.58090733999999999</v>
       </c>
     </row>
@@ -5318,10 +5317,10 @@
       <c r="A313" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B313" s="2">
-        <v>1</v>
-      </c>
-      <c r="C313" s="2">
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
         <v>0.54407053999999999</v>
       </c>
     </row>
@@ -5329,10 +5328,10 @@
       <c r="A314" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B314" s="2">
-        <v>1</v>
-      </c>
-      <c r="C314" s="2">
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
         <v>0.58447709999999997</v>
       </c>
     </row>
@@ -5340,10 +5339,10 @@
       <c r="A315" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B315" s="2">
-        <v>1</v>
-      </c>
-      <c r="C315" s="2">
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
         <v>0.52260273999999995</v>
       </c>
     </row>
@@ -5351,10 +5350,10 @@
       <c r="A316" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B316" s="2">
-        <v>1</v>
-      </c>
-      <c r="C316" s="2">
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
         <v>0.55973349999999999</v>
       </c>
     </row>
@@ -5362,10 +5361,10 @@
       <c r="A317" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B317" s="2">
-        <v>1</v>
-      </c>
-      <c r="C317" s="2">
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
         <v>0.54753894000000003</v>
       </c>
     </row>
@@ -5373,10 +5372,10 @@
       <c r="A318" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B318" s="2">
-        <v>1</v>
-      </c>
-      <c r="C318" s="2">
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
         <v>0.50407690000000005</v>
       </c>
     </row>
@@ -5384,10 +5383,10 @@
       <c r="A319" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B319" s="2">
-        <v>1</v>
-      </c>
-      <c r="C319" s="2">
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
         <v>0.57374630000000004</v>
       </c>
     </row>
@@ -5395,10 +5394,10 @@
       <c r="A320" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B320" s="2">
-        <v>1</v>
-      </c>
-      <c r="C320" s="2">
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
         <v>0.56335000000000002</v>
       </c>
     </row>
@@ -5406,10 +5405,10 @@
       <c r="A321" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B321" s="2">
-        <v>1</v>
-      </c>
-      <c r="C321" s="2">
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
         <v>0.59150860000000005</v>
       </c>
     </row>
@@ -5417,10 +5416,10 @@
       <c r="A322" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B322" s="2">
-        <v>1</v>
-      </c>
-      <c r="C322" s="2">
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
         <v>0.52552675999999998</v>
       </c>
     </row>
@@ -5428,10 +5427,10 @@
       <c r="A323" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B323" s="2">
-        <v>1</v>
-      </c>
-      <c r="C323" s="2">
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
         <v>0.62824860000000005</v>
       </c>
     </row>
@@ -5439,10 +5438,10 @@
       <c r="A324" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B324" s="2">
-        <v>1</v>
-      </c>
-      <c r="C324" s="2">
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
         <v>0.56896950000000002</v>
       </c>
     </row>
@@ -5450,10 +5449,10 @@
       <c r="A325" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B325" s="2">
-        <v>1</v>
-      </c>
-      <c r="C325" s="2">
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
         <v>0.55241275000000001</v>
       </c>
     </row>
@@ -5461,10 +5460,10 @@
       <c r="A326" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B326" s="2">
-        <v>1</v>
-      </c>
-      <c r="C326" s="2">
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
         <v>0.53823589999999999</v>
       </c>
     </row>
@@ -5472,10 +5471,10 @@
       <c r="A327" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B327" s="2">
-        <v>1</v>
-      </c>
-      <c r="C327" s="2">
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
         <v>0.55858326000000003</v>
       </c>
     </row>
@@ -5483,10 +5482,10 @@
       <c r="A328" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B328" s="2">
-        <v>1</v>
-      </c>
-      <c r="C328" s="2">
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
         <v>0.55519479999999999</v>
       </c>
     </row>
@@ -5494,10 +5493,10 @@
       <c r="A329" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B329" s="2">
-        <v>1</v>
-      </c>
-      <c r="C329" s="2">
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
         <v>0.57365069999999996</v>
       </c>
     </row>
@@ -5505,10 +5504,10 @@
       <c r="A330" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B330" s="2">
-        <v>1</v>
-      </c>
-      <c r="C330" s="2">
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
         <v>0.53062767</v>
       </c>
     </row>
@@ -5516,10 +5515,10 @@
       <c r="A331" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B331" s="2">
-        <v>0</v>
-      </c>
-      <c r="C331" s="2">
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
         <v>0.58335170000000003</v>
       </c>
     </row>
@@ -5527,10 +5526,10 @@
       <c r="A332" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B332" s="2">
-        <v>1</v>
-      </c>
-      <c r="C332" s="2">
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
         <v>0.57344030000000001</v>
       </c>
     </row>
@@ -5538,10 +5537,10 @@
       <c r="A333" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B333" s="2">
-        <v>1</v>
-      </c>
-      <c r="C333" s="2">
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
         <v>0.57143575000000002</v>
       </c>
     </row>
@@ -5549,10 +5548,10 @@
       <c r="A334" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B334" s="2">
-        <v>1</v>
-      </c>
-      <c r="C334" s="2">
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
         <v>0.60490405999999997</v>
       </c>
     </row>
@@ -5560,10 +5559,10 @@
       <c r="A335" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B335" s="2">
-        <v>0</v>
-      </c>
-      <c r="C335" s="2">
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
         <v>0.57588994999999998</v>
       </c>
     </row>
@@ -5571,10 +5570,10 @@
       <c r="A336" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B336" s="2">
-        <v>1</v>
-      </c>
-      <c r="C336" s="2">
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
         <v>0.57865244000000005</v>
       </c>
     </row>
@@ -5582,10 +5581,10 @@
       <c r="A337" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B337" s="2">
-        <v>1</v>
-      </c>
-      <c r="C337" s="2">
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
         <v>0.59889490000000001</v>
       </c>
     </row>
@@ -5593,10 +5592,10 @@
       <c r="A338" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B338" s="2">
-        <v>1</v>
-      </c>
-      <c r="C338" s="2">
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
         <v>0.50671980000000005</v>
       </c>
     </row>
@@ -5604,10 +5603,10 @@
       <c r="A339" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B339" s="2">
-        <v>0</v>
-      </c>
-      <c r="C339" s="2">
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
         <v>0.54363304000000001</v>
       </c>
     </row>
@@ -5615,10 +5614,10 @@
       <c r="A340" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B340" s="2">
-        <v>1</v>
-      </c>
-      <c r="C340" s="2">
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
         <v>0.58010435000000005</v>
       </c>
     </row>
@@ -5626,10 +5625,10 @@
       <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B341" s="2">
-        <v>1</v>
-      </c>
-      <c r="C341" s="2">
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
         <v>0.5346398</v>
       </c>
     </row>
@@ -5637,10 +5636,10 @@
       <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B342" s="2">
-        <v>1</v>
-      </c>
-      <c r="C342" s="2">
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
         <v>0.57037689999999996</v>
       </c>
     </row>
@@ -5648,10 +5647,10 @@
       <c r="A343" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B343" s="2">
-        <v>1</v>
-      </c>
-      <c r="C343" s="2">
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
         <v>0.51630299999999996</v>
       </c>
     </row>
@@ -5659,10 +5658,10 @@
       <c r="A344" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B344" s="2">
-        <v>0</v>
-      </c>
-      <c r="C344" s="2">
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
         <v>0.35244702999999999</v>
       </c>
     </row>
@@ -5670,10 +5669,10 @@
       <c r="A345" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B345" s="2">
-        <v>0</v>
-      </c>
-      <c r="C345" s="2">
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
         <v>0.56255065999999998</v>
       </c>
     </row>
@@ -5681,10 +5680,10 @@
       <c r="A346" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B346" s="2">
-        <v>0</v>
-      </c>
-      <c r="C346" s="2">
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
         <v>0.57690260000000004</v>
       </c>
     </row>
@@ -5692,10 +5691,10 @@
       <c r="A347" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B347" s="2">
-        <v>1</v>
-      </c>
-      <c r="C347" s="2">
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
         <v>0.59028720000000001</v>
       </c>
     </row>
@@ -5703,10 +5702,10 @@
       <c r="A348" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B348" s="2">
-        <v>1</v>
-      </c>
-      <c r="C348" s="2">
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
         <v>0.53070569999999995</v>
       </c>
     </row>
@@ -5714,10 +5713,10 @@
       <c r="A349" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B349" s="2">
-        <v>1</v>
-      </c>
-      <c r="C349" s="2">
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
         <v>0.59583752999999995</v>
       </c>
     </row>
@@ -5725,10 +5724,10 @@
       <c r="A350" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B350" s="2">
-        <v>1</v>
-      </c>
-      <c r="C350" s="2">
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
         <v>0.51742666999999998</v>
       </c>
     </row>
@@ -5736,10 +5735,10 @@
       <c r="A351" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B351" s="2">
-        <v>1</v>
-      </c>
-      <c r="C351" s="2">
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
         <v>0.56928920000000005</v>
       </c>
     </row>
@@ -5747,10 +5746,10 @@
       <c r="A352" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B352" s="2">
-        <v>1</v>
-      </c>
-      <c r="C352" s="2">
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
         <v>0.57803386000000001</v>
       </c>
     </row>
@@ -5758,10 +5757,10 @@
       <c r="A353" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B353" s="2">
-        <v>0</v>
-      </c>
-      <c r="C353" s="2">
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
         <v>0.55213683999999996</v>
       </c>
     </row>
@@ -5769,10 +5768,10 @@
       <c r="A354" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B354" s="2">
-        <v>1</v>
-      </c>
-      <c r="C354" s="2">
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
         <v>0.56585425</v>
       </c>
     </row>
@@ -5780,10 +5779,10 @@
       <c r="A355" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B355" s="2">
-        <v>1</v>
-      </c>
-      <c r="C355" s="2">
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
         <v>0.60203253999999995</v>
       </c>
     </row>
@@ -5791,10 +5790,10 @@
       <c r="A356" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B356" s="2">
-        <v>1</v>
-      </c>
-      <c r="C356" s="2">
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
         <v>0.62035709999999999</v>
       </c>
     </row>
@@ -5802,10 +5801,10 @@
       <c r="A357" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B357" s="2">
-        <v>1</v>
-      </c>
-      <c r="C357" s="2">
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
         <v>0.56015499999999996</v>
       </c>
     </row>
@@ -5813,10 +5812,10 @@
       <c r="A358" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B358" s="2">
-        <v>1</v>
-      </c>
-      <c r="C358" s="2">
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
         <v>0.56577359999999999</v>
       </c>
     </row>
@@ -5824,10 +5823,10 @@
       <c r="A359" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B359" s="2">
-        <v>1</v>
-      </c>
-      <c r="C359" s="2">
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
         <v>0.5720305</v>
       </c>
     </row>
@@ -5835,10 +5834,10 @@
       <c r="A360" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B360" s="2">
-        <v>1</v>
-      </c>
-      <c r="C360" s="2">
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
         <v>0.61903757000000004</v>
       </c>
     </row>
@@ -5846,10 +5845,10 @@
       <c r="A361" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B361" s="2">
-        <v>1</v>
-      </c>
-      <c r="C361" s="2">
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
         <v>0.59910005</v>
       </c>
     </row>
@@ -5857,10 +5856,10 @@
       <c r="A362" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B362" s="2">
-        <v>0</v>
-      </c>
-      <c r="C362" s="2">
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
         <v>0.59581499999999998</v>
       </c>
     </row>
@@ -5868,10 +5867,10 @@
       <c r="A363" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B363" s="2">
-        <v>1</v>
-      </c>
-      <c r="C363" s="2">
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
         <v>0.56224065999999995</v>
       </c>
     </row>
@@ -5879,10 +5878,10 @@
       <c r="A364" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B364" s="2">
-        <v>1</v>
-      </c>
-      <c r="C364" s="2">
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
         <v>0.58931929999999999</v>
       </c>
     </row>
@@ -5890,10 +5889,10 @@
       <c r="A365" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B365" s="2">
-        <v>1</v>
-      </c>
-      <c r="C365" s="2">
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
         <v>0.54858815999999999</v>
       </c>
     </row>
@@ -5901,10 +5900,10 @@
       <c r="A366" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B366" s="2">
-        <v>1</v>
-      </c>
-      <c r="C366" s="2">
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
         <v>0.57800750000000001</v>
       </c>
     </row>
@@ -5912,10 +5911,10 @@
       <c r="A367" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B367" s="2">
-        <v>1</v>
-      </c>
-      <c r="C367" s="2">
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
         <v>0.58074534</v>
       </c>
     </row>
@@ -5923,10 +5922,10 @@
       <c r="A368" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B368" s="2">
-        <v>1</v>
-      </c>
-      <c r="C368" s="2">
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
         <v>0.53282669999999999</v>
       </c>
     </row>
@@ -5934,10 +5933,10 @@
       <c r="A369" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B369" s="2">
-        <v>1</v>
-      </c>
-      <c r="C369" s="2">
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
         <v>0.5630558</v>
       </c>
     </row>
@@ -5945,10 +5944,10 @@
       <c r="A370" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B370" s="2">
-        <v>1</v>
-      </c>
-      <c r="C370" s="2">
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
         <v>0.60162364999999995</v>
       </c>
     </row>
@@ -5956,10 +5955,10 @@
       <c r="A371" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B371" s="2">
-        <v>0</v>
-      </c>
-      <c r="C371" s="2">
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
         <v>0.54736779999999996</v>
       </c>
     </row>
@@ -5967,10 +5966,10 @@
       <c r="A372" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B372" s="2">
-        <v>1</v>
-      </c>
-      <c r="C372" s="2">
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
         <v>0.56048180000000003</v>
       </c>
     </row>
@@ -5978,10 +5977,10 @@
       <c r="A373" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B373" s="2">
-        <v>1</v>
-      </c>
-      <c r="C373" s="2">
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
         <v>0.5577278</v>
       </c>
     </row>
@@ -5989,10 +5988,10 @@
       <c r="A374" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B374" s="2">
-        <v>1</v>
-      </c>
-      <c r="C374" s="2">
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
         <v>0.59548455</v>
       </c>
     </row>
@@ -6000,10 +5999,10 @@
       <c r="A375" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B375" s="2">
-        <v>1</v>
-      </c>
-      <c r="C375" s="2">
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
         <v>0.53868830000000001</v>
       </c>
     </row>
@@ -6011,10 +6010,10 @@
       <c r="A376" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B376" s="2">
-        <v>1</v>
-      </c>
-      <c r="C376" s="2">
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
         <v>0.57083329999999999</v>
       </c>
     </row>
@@ -6022,10 +6021,10 @@
       <c r="A377" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B377" s="2">
-        <v>1</v>
-      </c>
-      <c r="C377" s="2">
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
         <v>0.53479650000000001</v>
       </c>
     </row>
@@ -6033,10 +6032,10 @@
       <c r="A378" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B378" s="2">
-        <v>1</v>
-      </c>
-      <c r="C378" s="2">
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
         <v>0.556701</v>
       </c>
     </row>
@@ -6044,10 +6043,10 @@
       <c r="A379" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B379" s="2">
-        <v>1</v>
-      </c>
-      <c r="C379" s="2">
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
         <v>0.55706109999999998</v>
       </c>
     </row>
@@ -6055,10 +6054,10 @@
       <c r="A380" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B380" s="2">
-        <v>1</v>
-      </c>
-      <c r="C380" s="2">
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
         <v>0.57660127000000005</v>
       </c>
     </row>
@@ -6066,10 +6065,10 @@
       <c r="A381" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B381" s="2">
-        <v>1</v>
-      </c>
-      <c r="C381" s="2">
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
         <v>0.59713510000000003</v>
       </c>
     </row>
@@ -6077,10 +6076,10 @@
       <c r="A382" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B382" s="2">
-        <v>1</v>
-      </c>
-      <c r="C382" s="2">
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
         <v>0.56104940000000003</v>
       </c>
     </row>
@@ -6088,10 +6087,10 @@
       <c r="A383" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B383" s="2">
-        <v>1</v>
-      </c>
-      <c r="C383" s="2">
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
         <v>0.55417130000000003</v>
       </c>
     </row>
@@ -6099,10 +6098,10 @@
       <c r="A384" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B384" s="2">
-        <v>1</v>
-      </c>
-      <c r="C384" s="2">
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
         <v>0.5625</v>
       </c>
     </row>
@@ -6110,10 +6109,10 @@
       <c r="A385" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B385" s="2">
-        <v>0</v>
-      </c>
-      <c r="C385" s="2">
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
         <v>0.57504416000000003</v>
       </c>
     </row>
@@ -6121,10 +6120,10 @@
       <c r="A386" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B386" s="2">
-        <v>1</v>
-      </c>
-      <c r="C386" s="2">
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
         <v>0.55349344</v>
       </c>
     </row>
@@ -6132,10 +6131,10 @@
       <c r="A387" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B387" s="2">
-        <v>0</v>
-      </c>
-      <c r="C387" s="2">
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
         <v>0.59435870000000002</v>
       </c>
     </row>
@@ -6143,10 +6142,10 @@
       <c r="A388" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B388" s="2">
-        <v>1</v>
-      </c>
-      <c r="C388" s="2">
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
         <v>0.55866320000000003</v>
       </c>
     </row>
@@ -6154,10 +6153,10 @@
       <c r="A389" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B389" s="2">
-        <v>1</v>
-      </c>
-      <c r="C389" s="2">
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
         <v>0.54564935000000003</v>
       </c>
     </row>
@@ -6165,10 +6164,10 @@
       <c r="A390" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B390" s="2">
-        <v>1</v>
-      </c>
-      <c r="C390" s="2">
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
         <v>0.58337729999999999</v>
       </c>
     </row>
@@ -6176,10 +6175,10 @@
       <c r="A391" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B391" s="2">
-        <v>1</v>
-      </c>
-      <c r="C391" s="2">
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
         <v>0.56312567000000002</v>
       </c>
     </row>
@@ -6187,10 +6186,10 @@
       <c r="A392" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B392" s="2">
-        <v>0</v>
-      </c>
-      <c r="C392" s="2">
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
         <v>0.58700465999999996</v>
       </c>
     </row>
@@ -6198,10 +6197,10 @@
       <c r="A393" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B393" s="2">
-        <v>1</v>
-      </c>
-      <c r="C393" s="2">
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
         <v>0.53339369999999997</v>
       </c>
     </row>
@@ -6209,10 +6208,10 @@
       <c r="A394" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B394" s="2">
-        <v>1</v>
-      </c>
-      <c r="C394" s="2">
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
         <v>0.51314059999999995</v>
       </c>
     </row>
@@ -6220,10 +6219,10 @@
       <c r="A395" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B395" s="2">
-        <v>1</v>
-      </c>
-      <c r="C395" s="2">
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
         <v>0.53656009999999998</v>
       </c>
     </row>
@@ -6231,10 +6230,10 @@
       <c r="A396" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B396" s="2">
-        <v>1</v>
-      </c>
-      <c r="C396" s="2">
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
         <v>0.5350722</v>
       </c>
     </row>
@@ -6242,10 +6241,10 @@
       <c r="A397" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B397" s="2">
-        <v>1</v>
-      </c>
-      <c r="C397" s="2">
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
         <v>0.59724460000000001</v>
       </c>
     </row>
@@ -6253,10 +6252,10 @@
       <c r="A398" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B398" s="2">
-        <v>1</v>
-      </c>
-      <c r="C398" s="2">
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
         <v>0.57229870000000005</v>
       </c>
     </row>
@@ -6264,10 +6263,10 @@
       <c r="A399" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B399" s="2">
-        <v>1</v>
-      </c>
-      <c r="C399" s="2">
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
         <v>0.56421113000000001</v>
       </c>
     </row>
@@ -6275,10 +6274,10 @@
       <c r="A400" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B400" s="2">
-        <v>1</v>
-      </c>
-      <c r="C400" s="2">
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
         <v>0.52530193000000003</v>
       </c>
     </row>
@@ -6286,10 +6285,10 @@
       <c r="A401" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B401" s="2">
-        <v>1</v>
-      </c>
-      <c r="C401" s="2">
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
         <v>0.55402430000000003</v>
       </c>
     </row>
@@ -6297,10 +6296,10 @@
       <c r="A402" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B402" s="2">
-        <v>1</v>
-      </c>
-      <c r="C402" s="2">
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
         <v>0.57589109999999999</v>
       </c>
     </row>
@@ -6308,10 +6307,10 @@
       <c r="A403" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B403" s="2">
-        <v>1</v>
-      </c>
-      <c r="C403" s="2">
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
         <v>0.56066439999999995</v>
       </c>
     </row>
@@ -6319,10 +6318,10 @@
       <c r="A404" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B404" s="2">
-        <v>1</v>
-      </c>
-      <c r="C404" s="2">
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
         <v>0.56029269999999998</v>
       </c>
     </row>
@@ -6330,10 +6329,10 @@
       <c r="A405" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B405" s="2">
-        <v>0</v>
-      </c>
-      <c r="C405" s="2">
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
         <v>0.59135300000000002</v>
       </c>
     </row>
@@ -6341,10 +6340,10 @@
       <c r="A406" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B406" s="2">
-        <v>1</v>
-      </c>
-      <c r="C406" s="2">
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
         <v>0.51752790000000004</v>
       </c>
     </row>
@@ -6352,10 +6351,10 @@
       <c r="A407" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B407" s="2">
-        <v>1</v>
-      </c>
-      <c r="C407" s="2">
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
         <v>0.55248960000000003</v>
       </c>
     </row>
@@ -6363,10 +6362,10 @@
       <c r="A408" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B408" s="2">
-        <v>1</v>
-      </c>
-      <c r="C408" s="2">
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
         <v>0.54110133999999999</v>
       </c>
     </row>
@@ -6374,10 +6373,10 @@
       <c r="A409" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B409" s="2">
-        <v>1</v>
-      </c>
-      <c r="C409" s="2">
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
         <v>0.54026079999999999</v>
       </c>
     </row>
@@ -6385,10 +6384,10 @@
       <c r="A410" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B410" s="2">
-        <v>1</v>
-      </c>
-      <c r="C410" s="2">
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
         <v>0.56271636000000003</v>
       </c>
     </row>
@@ -6396,10 +6395,10 @@
       <c r="A411" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B411" s="2">
-        <v>1</v>
-      </c>
-      <c r="C411" s="2">
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411">
         <v>0.54505663999999998</v>
       </c>
     </row>
@@ -6407,10 +6406,10 @@
       <c r="A412" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B412" s="2">
-        <v>1</v>
-      </c>
-      <c r="C412" s="2">
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
         <v>0.56618279999999999</v>
       </c>
     </row>
@@ -6418,10 +6417,10 @@
       <c r="A413" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B413" s="2">
-        <v>1</v>
-      </c>
-      <c r="C413" s="2">
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
         <v>0.54880300000000004</v>
       </c>
     </row>
@@ -6429,10 +6428,10 @@
       <c r="A414" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B414" s="2">
-        <v>1</v>
-      </c>
-      <c r="C414" s="2">
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
         <v>0.60531559999999995</v>
       </c>
     </row>
@@ -6440,10 +6439,10 @@
       <c r="A415" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B415" s="2">
-        <v>1</v>
-      </c>
-      <c r="C415" s="2">
+      <c r="B415">
+        <v>1</v>
+      </c>
+      <c r="C415">
         <v>0.52816384999999999</v>
       </c>
     </row>
@@ -6451,10 +6450,10 @@
       <c r="A416" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B416" s="2">
-        <v>1</v>
-      </c>
-      <c r="C416" s="2">
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
         <v>0.54882940000000002</v>
       </c>
     </row>
@@ -6462,10 +6461,10 @@
       <c r="A417" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B417" s="2">
-        <v>1</v>
-      </c>
-      <c r="C417" s="2">
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417">
         <v>0.57362179999999996</v>
       </c>
     </row>
@@ -6473,10 +6472,10 @@
       <c r="A418" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B418" s="2">
-        <v>1</v>
-      </c>
-      <c r="C418" s="2">
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
         <v>0.52948139999999999</v>
       </c>
     </row>
@@ -6484,10 +6483,10 @@
       <c r="A419" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B419" s="2">
-        <v>0</v>
-      </c>
-      <c r="C419" s="2">
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
         <v>0.589175</v>
       </c>
     </row>
@@ -6495,10 +6494,10 @@
       <c r="A420" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B420" s="2">
-        <v>1</v>
-      </c>
-      <c r="C420" s="2">
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
         <v>0.58604730000000005</v>
       </c>
     </row>
@@ -6506,10 +6505,10 @@
       <c r="A421" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B421" s="2">
-        <v>0</v>
-      </c>
-      <c r="C421" s="2">
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
         <v>0.56327760000000004</v>
       </c>
     </row>
@@ -6517,10 +6516,10 @@
       <c r="A422" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B422" s="2">
-        <v>0</v>
-      </c>
-      <c r="C422" s="2">
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
         <v>0.60172639999999999</v>
       </c>
     </row>
@@ -6528,10 +6527,10 @@
       <c r="A423" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B423" s="2">
-        <v>1</v>
-      </c>
-      <c r="C423" s="2">
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
         <v>0.5612646</v>
       </c>
     </row>
@@ -6539,10 +6538,10 @@
       <c r="A424" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B424" s="2">
-        <v>1</v>
-      </c>
-      <c r="C424" s="2">
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
         <v>0.56344974000000003</v>
       </c>
     </row>
@@ -6550,10 +6549,10 @@
       <c r="A425" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B425" s="2">
-        <v>1</v>
-      </c>
-      <c r="C425" s="2">
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425">
         <v>0.59788715999999997</v>
       </c>
     </row>
@@ -6561,10 +6560,10 @@
       <c r="A426" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B426" s="2">
-        <v>1</v>
-      </c>
-      <c r="C426" s="2">
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
         <v>0.56498455999999997</v>
       </c>
     </row>
@@ -6572,10 +6571,10 @@
       <c r="A427" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B427" s="2">
-        <v>0</v>
-      </c>
-      <c r="C427" s="2">
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
         <v>0.50697535000000005</v>
       </c>
     </row>
@@ -6583,10 +6582,10 @@
       <c r="A428" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B428" s="2">
-        <v>1</v>
-      </c>
-      <c r="C428" s="2">
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
         <v>0.59297619999999995</v>
       </c>
     </row>
@@ -6594,10 +6593,10 @@
       <c r="A429" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B429" s="2">
-        <v>1</v>
-      </c>
-      <c r="C429" s="2">
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
         <v>0.53626940000000001</v>
       </c>
     </row>
@@ -6605,10 +6604,10 @@
       <c r="A430" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B430" s="2">
-        <v>1</v>
-      </c>
-      <c r="C430" s="2">
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
         <v>0.57535400000000003</v>
       </c>
     </row>
@@ -6616,10 +6615,10 @@
       <c r="A431" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B431" s="2">
-        <v>0</v>
-      </c>
-      <c r="C431" s="2">
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
         <v>0.57483983000000005</v>
       </c>
     </row>
@@ -6627,10 +6626,10 @@
       <c r="A432" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B432" s="2">
-        <v>1</v>
-      </c>
-      <c r="C432" s="2">
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
         <v>0.52729300000000001</v>
       </c>
     </row>
@@ -6638,10 +6637,10 @@
       <c r="A433" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B433" s="2">
-        <v>1</v>
-      </c>
-      <c r="C433" s="2">
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
         <v>0.57894449999999997</v>
       </c>
     </row>
@@ -6649,10 +6648,10 @@
       <c r="A434" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B434" s="2">
-        <v>1</v>
-      </c>
-      <c r="C434" s="2">
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
         <v>0.53998789999999997</v>
       </c>
     </row>
@@ -6660,10 +6659,10 @@
       <c r="A435" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B435" s="2">
-        <v>1</v>
-      </c>
-      <c r="C435" s="2">
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435">
         <v>0.5589575</v>
       </c>
     </row>
@@ -6671,10 +6670,10 @@
       <c r="A436" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B436" s="2">
-        <v>1</v>
-      </c>
-      <c r="C436" s="2">
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
         <v>0.5402614</v>
       </c>
     </row>
@@ -6682,10 +6681,10 @@
       <c r="A437" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B437" s="2">
-        <v>1</v>
-      </c>
-      <c r="C437" s="2">
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
         <v>0.55935840000000003</v>
       </c>
     </row>
@@ -6693,10 +6692,10 @@
       <c r="A438" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B438" s="2">
-        <v>1</v>
-      </c>
-      <c r="C438" s="2">
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
         <v>0.55661760000000005</v>
       </c>
     </row>
@@ -6704,10 +6703,10 @@
       <c r="A439" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B439" s="2">
-        <v>1</v>
-      </c>
-      <c r="C439" s="2">
+      <c r="B439">
+        <v>1</v>
+      </c>
+      <c r="C439">
         <v>0.57545630000000003</v>
       </c>
     </row>
@@ -6715,10 +6714,10 @@
       <c r="A440" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B440" s="2">
-        <v>1</v>
-      </c>
-      <c r="C440" s="2">
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
         <v>0.56564932999999995</v>
       </c>
     </row>
@@ -6726,10 +6725,10 @@
       <c r="A441" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B441" s="2">
-        <v>0</v>
-      </c>
-      <c r="C441" s="2">
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
         <v>0.58907609999999999</v>
       </c>
     </row>
@@ -6737,10 +6736,10 @@
       <c r="A442" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B442" s="2">
-        <v>1</v>
-      </c>
-      <c r="C442" s="2">
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
         <v>0.57736909999999997</v>
       </c>
     </row>
@@ -6748,10 +6747,10 @@
       <c r="A443" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B443" s="2">
-        <v>1</v>
-      </c>
-      <c r="C443" s="2">
+      <c r="B443">
+        <v>1</v>
+      </c>
+      <c r="C443">
         <v>0.57521904000000001</v>
       </c>
     </row>
@@ -6759,10 +6758,10 @@
       <c r="A444" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B444" s="2">
-        <v>1</v>
-      </c>
-      <c r="C444" s="2">
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
         <v>0.59832640000000004</v>
       </c>
     </row>
@@ -6770,10 +6769,10 @@
       <c r="A445" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B445" s="2">
-        <v>1</v>
-      </c>
-      <c r="C445" s="2">
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
         <v>0.54592200000000002</v>
       </c>
     </row>
@@ -6781,10 +6780,10 @@
       <c r="A446" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B446" s="2">
-        <v>1</v>
-      </c>
-      <c r="C446" s="2">
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
         <v>0.54131070000000003</v>
       </c>
     </row>
@@ -6792,10 +6791,10 @@
       <c r="A447" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B447" s="2">
-        <v>1</v>
-      </c>
-      <c r="C447" s="2">
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
         <v>0.55397474999999996</v>
       </c>
     </row>
@@ -6803,10 +6802,10 @@
       <c r="A448" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B448" s="2">
-        <v>1</v>
-      </c>
-      <c r="C448" s="2">
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
         <v>0.51042085999999998</v>
       </c>
     </row>
@@ -6814,10 +6813,10 @@
       <c r="A449" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B449" s="2">
-        <v>1</v>
-      </c>
-      <c r="C449" s="2">
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
         <v>0.56571839999999995</v>
       </c>
     </row>
@@ -6825,10 +6824,10 @@
       <c r="A450" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B450" s="2">
-        <v>1</v>
-      </c>
-      <c r="C450" s="2">
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
         <v>0.53555819999999998</v>
       </c>
     </row>
@@ -6836,10 +6835,10 @@
       <c r="A451" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B451" s="2">
-        <v>1</v>
-      </c>
-      <c r="C451" s="2">
+      <c r="B451">
+        <v>1</v>
+      </c>
+      <c r="C451">
         <v>0.59355259999999999</v>
       </c>
     </row>
@@ -6847,10 +6846,10 @@
       <c r="A452" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B452" s="2">
-        <v>1</v>
-      </c>
-      <c r="C452" s="2">
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
         <v>0.60004299999999999</v>
       </c>
     </row>
@@ -6858,10 +6857,10 @@
       <c r="A453" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B453" s="2">
-        <v>1</v>
-      </c>
-      <c r="C453" s="2">
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
         <v>0.55452394000000005</v>
       </c>
     </row>
@@ -6869,10 +6868,10 @@
       <c r="A454" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B454" s="2">
-        <v>1</v>
-      </c>
-      <c r="C454" s="2">
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
         <v>0.50698189999999999</v>
       </c>
     </row>
@@ -6880,10 +6879,10 @@
       <c r="A455" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B455" s="2">
-        <v>1</v>
-      </c>
-      <c r="C455" s="2">
+      <c r="B455">
+        <v>1</v>
+      </c>
+      <c r="C455">
         <v>0.58987117</v>
       </c>
     </row>
@@ -6891,10 +6890,10 @@
       <c r="A456" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B456" s="2">
-        <v>1</v>
-      </c>
-      <c r="C456" s="2">
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
         <v>0.58423329999999996</v>
       </c>
     </row>
@@ -6902,10 +6901,10 @@
       <c r="A457" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B457" s="2">
-        <v>1</v>
-      </c>
-      <c r="C457" s="2">
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
         <v>0.60585770000000005</v>
       </c>
     </row>
@@ -6913,10 +6912,10 @@
       <c r="A458" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B458" s="2">
-        <v>1</v>
-      </c>
-      <c r="C458" s="2">
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
         <v>0.55079334999999996</v>
       </c>
     </row>
@@ -6924,10 +6923,10 @@
       <c r="A459" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B459" s="2">
-        <v>1</v>
-      </c>
-      <c r="C459" s="2">
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
         <v>0.58082590000000001</v>
       </c>
     </row>
@@ -6935,10 +6934,10 @@
       <c r="A460" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B460" s="2">
-        <v>1</v>
-      </c>
-      <c r="C460" s="2">
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
         <v>0.60197279999999997</v>
       </c>
     </row>
@@ -6946,10 +6945,10 @@
       <c r="A461" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B461" s="2">
-        <v>1</v>
-      </c>
-      <c r="C461" s="2">
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
         <v>0.50996019999999997</v>
       </c>
     </row>
@@ -6957,10 +6956,10 @@
       <c r="A462" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B462" s="2">
-        <v>1</v>
-      </c>
-      <c r="C462" s="2">
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
         <v>0.54067962999999997</v>
       </c>
     </row>
@@ -6968,10 +6967,10 @@
       <c r="A463" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B463" s="2">
-        <v>1</v>
-      </c>
-      <c r="C463" s="2">
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463">
         <v>0.61351149999999999</v>
       </c>
     </row>
@@ -6979,10 +6978,10 @@
       <c r="A464" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B464" s="2">
-        <v>1</v>
-      </c>
-      <c r="C464" s="2">
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
         <v>0.57174820000000004</v>
       </c>
     </row>
@@ -6990,10 +6989,10 @@
       <c r="A465" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B465" s="2">
-        <v>1</v>
-      </c>
-      <c r="C465" s="2">
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465">
         <v>0.60282415</v>
       </c>
     </row>
@@ -7001,10 +7000,10 @@
       <c r="A466" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B466" s="2">
-        <v>1</v>
-      </c>
-      <c r="C466" s="2">
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
         <v>0.56103159999999996</v>
       </c>
     </row>
@@ -7012,10 +7011,10 @@
       <c r="A467" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B467" s="2">
-        <v>0</v>
-      </c>
-      <c r="C467" s="2">
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
         <v>0.57033920000000005</v>
       </c>
     </row>
@@ -7023,10 +7022,10 @@
       <c r="A468" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B468" s="2">
-        <v>1</v>
-      </c>
-      <c r="C468" s="2">
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
         <v>0.57212660000000004</v>
       </c>
     </row>
@@ -7034,10 +7033,10 @@
       <c r="A469" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B469" s="2">
-        <v>1</v>
-      </c>
-      <c r="C469" s="2">
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469">
         <v>0.58567290000000005</v>
       </c>
     </row>
@@ -7045,10 +7044,10 @@
       <c r="A470" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B470" s="2">
-        <v>1</v>
-      </c>
-      <c r="C470" s="2">
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
         <v>0.58540499999999995</v>
       </c>
     </row>
@@ -7056,10 +7055,10 @@
       <c r="A471" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B471" s="2">
-        <v>0</v>
-      </c>
-      <c r="C471" s="2">
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
         <v>0.60643460000000005</v>
       </c>
     </row>
@@ -7067,10 +7066,10 @@
       <c r="A472" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B472" s="2">
-        <v>0</v>
-      </c>
-      <c r="C472" s="2">
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
         <v>0.55231803999999995</v>
       </c>
     </row>
@@ -7078,10 +7077,10 @@
       <c r="A473" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B473" s="2">
-        <v>1</v>
-      </c>
-      <c r="C473" s="2">
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473">
         <v>0.57509909999999997</v>
       </c>
     </row>
@@ -7089,10 +7088,10 @@
       <c r="A474" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B474" s="2">
-        <v>1</v>
-      </c>
-      <c r="C474" s="2">
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
         <v>0.5617432</v>
       </c>
     </row>
@@ -7100,10 +7099,10 @@
       <c r="A475" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B475" s="2">
-        <v>1</v>
-      </c>
-      <c r="C475" s="2">
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
         <v>0.5790672</v>
       </c>
     </row>
@@ -7111,10 +7110,10 @@
       <c r="A476" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B476" s="2">
-        <v>0</v>
-      </c>
-      <c r="C476" s="2">
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
         <v>0.58915229999999996</v>
       </c>
     </row>
@@ -7122,10 +7121,10 @@
       <c r="A477" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B477" s="2">
-        <v>1</v>
-      </c>
-      <c r="C477" s="2">
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477">
         <v>0.56854254000000004</v>
       </c>
     </row>
@@ -7133,10 +7132,10 @@
       <c r="A478" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B478" s="2">
-        <v>1</v>
-      </c>
-      <c r="C478" s="2">
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
         <v>0.60685040000000001</v>
       </c>
     </row>
@@ -7144,10 +7143,10 @@
       <c r="A479" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B479" s="2">
-        <v>0</v>
-      </c>
-      <c r="C479" s="2">
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
         <v>0.3265093</v>
       </c>
     </row>
@@ -7155,10 +7154,10 @@
       <c r="A480" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B480" s="2">
-        <v>1</v>
-      </c>
-      <c r="C480" s="2">
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
         <v>0.58804345000000002</v>
       </c>
     </row>
@@ -7166,10 +7165,10 @@
       <c r="A481" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B481" s="2">
-        <v>1</v>
-      </c>
-      <c r="C481" s="2">
+      <c r="B481">
+        <v>1</v>
+      </c>
+      <c r="C481">
         <v>0.59909959999999995</v>
       </c>
     </row>
@@ -7177,10 +7176,10 @@
       <c r="A482" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B482" s="2">
-        <v>1</v>
-      </c>
-      <c r="C482" s="2">
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
         <v>0.585059</v>
       </c>
     </row>
@@ -7188,10 +7187,10 @@
       <c r="A483" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B483" s="2">
-        <v>1</v>
-      </c>
-      <c r="C483" s="2">
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
         <v>0.55516209999999999</v>
       </c>
     </row>
@@ -7199,10 +7198,10 @@
       <c r="A484" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B484" s="2">
-        <v>1</v>
-      </c>
-      <c r="C484" s="2">
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
         <v>0.58630409999999999</v>
       </c>
     </row>
@@ -7210,10 +7209,10 @@
       <c r="A485" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B485" s="2">
-        <v>1</v>
-      </c>
-      <c r="C485" s="2">
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485">
         <v>0.54873514000000001</v>
       </c>
     </row>
@@ -7221,10 +7220,10 @@
       <c r="A486" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B486" s="2">
-        <v>1</v>
-      </c>
-      <c r="C486" s="2">
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
         <v>0.55476190000000003</v>
       </c>
     </row>
@@ -7232,10 +7231,10 @@
       <c r="A487" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B487" s="2">
-        <v>1</v>
-      </c>
-      <c r="C487" s="2">
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487">
         <v>0.56793684</v>
       </c>
     </row>
@@ -7243,10 +7242,10 @@
       <c r="A488" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B488" s="2">
-        <v>1</v>
-      </c>
-      <c r="C488" s="2">
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
         <v>0.56484604000000005</v>
       </c>
     </row>
@@ -7254,10 +7253,10 @@
       <c r="A489" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B489" s="2">
-        <v>1</v>
-      </c>
-      <c r="C489" s="2">
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489">
         <v>0.54928445999999997</v>
       </c>
     </row>
@@ -7265,10 +7264,10 @@
       <c r="A490" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B490" s="2">
-        <v>1</v>
-      </c>
-      <c r="C490" s="2">
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
         <v>0.54695899999999997</v>
       </c>
     </row>
@@ -7276,10 +7275,10 @@
       <c r="A491" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B491" s="2">
-        <v>1</v>
-      </c>
-      <c r="C491" s="2">
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491">
         <v>0.55435604000000005</v>
       </c>
     </row>
@@ -7287,10 +7286,10 @@
       <c r="A492" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B492" s="2">
-        <v>1</v>
-      </c>
-      <c r="C492" s="2">
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
         <v>0.53133149999999996</v>
       </c>
     </row>
@@ -7298,10 +7297,10 @@
       <c r="A493" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B493" s="2">
-        <v>1</v>
-      </c>
-      <c r="C493" s="2">
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493">
         <v>0.53208584000000003</v>
       </c>
     </row>
@@ -7309,10 +7308,10 @@
       <c r="A494" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B494" s="2">
-        <v>1</v>
-      </c>
-      <c r="C494" s="2">
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
         <v>0.58034609999999998</v>
       </c>
     </row>
@@ -7320,10 +7319,10 @@
       <c r="A495" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B495" s="2">
-        <v>1</v>
-      </c>
-      <c r="C495" s="2">
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495">
         <v>0.52656495999999997</v>
       </c>
     </row>
@@ -7331,10 +7330,10 @@
       <c r="A496" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B496" s="2">
-        <v>1</v>
-      </c>
-      <c r="C496" s="2">
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
         <v>0.5389562</v>
       </c>
     </row>
@@ -7342,10 +7341,10 @@
       <c r="A497" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B497" s="2">
-        <v>1</v>
-      </c>
-      <c r="C497" s="2">
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497">
         <v>0.57464879999999996</v>
       </c>
     </row>
@@ -7353,10 +7352,10 @@
       <c r="A498" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B498" s="2">
-        <v>1</v>
-      </c>
-      <c r="C498" s="2">
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
         <v>0.55843955000000001</v>
       </c>
     </row>
@@ -7364,10 +7363,10 @@
       <c r="A499" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B499" s="2">
-        <v>1</v>
-      </c>
-      <c r="C499" s="2">
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499">
         <v>0.54531145000000003</v>
       </c>
     </row>
@@ -7375,10 +7374,10 @@
       <c r="A500" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B500" s="2">
-        <v>1</v>
-      </c>
-      <c r="C500" s="2">
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
         <v>0.54347825000000005</v>
       </c>
     </row>
@@ -7386,19 +7385,19 @@
       <c r="A501" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B501" s="2">
-        <v>0</v>
-      </c>
-      <c r="C501" s="2">
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
         <v>0.5643262</v>
       </c>
     </row>
-    <row r="502" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B502" s="3">
+    <row r="502" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B502" s="2">
         <f>AVERAGE(B2:B501)</f>
         <v>0.84799999999999998</v>
       </c>
-      <c r="C502" s="3">
+      <c r="C502" s="2">
         <f>AVERAGE(C2:C501)</f>
         <v>0.56410536578000037</v>
       </c>

--- a/cam.mcs.model/model/result.xlsx
+++ b/cam.mcs.model/model/result.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EplisonWorkSpace\Github\mbse-rts\cam.mcs.model\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willr\Desktop\Github_Project\mbse-rts\cam.mcs.model\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E5FE5-E8D2-4456-8946-FE8B536AEE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C47B6D-B501-4ACD-957F-69509859BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,39 +70,6 @@
   <si>
     <t>system_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.47883064</t>
-  </si>
-  <si>
-    <t>0.58946574</t>
-  </si>
-  <si>
-    <t>0.6905242</t>
-  </si>
-  <si>
-    <t>0.624622</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.47403258</t>
-  </si>
-  <si>
-    <t>0.40733197</t>
-  </si>
-  <si>
-    <t>0.6033605</t>
-  </si>
-  <si>
-    <t>0.5796843</t>
   </si>
 </sst>
 </file>
@@ -431,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" style="1" width="20.875" collapsed="true"/>
+    <col min="1" max="16384" width="20.875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -469,64 +436,6 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/cam.mcs.model/model/result.xlsx
+++ b/cam.mcs.model/model/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willr\Desktop\Github_Project\mbse-rts\cam.mcs.model\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EplisonWorkSpace\Github\mbse-rts\cam.mcs.model\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C47B6D-B501-4ACD-957F-69509859BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A128074-F2D7-4D5C-9CCC-E20F37253F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="3090" windowWidth="29115" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,47 +20,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcp_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcp_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>high_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>high_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -68,7 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>system_rate</t>
+    <t>actual_occupancy_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_occupancy_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_occupancy_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -409,7 +384,7 @@
     <col min="1" max="16384" width="20.875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,18 +400,6 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cam.mcs.model/model/result.xlsx
+++ b/cam.mcs.model/model/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EplisonWorkSpace\Github\mbse-rts\cam.mcs.model\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willr\Desktop\mbse-rts4guan-master\cam.mcs.model\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A128074-F2D7-4D5C-9CCC-E20F37253F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D568B739-A701-42B5-9134-D9A6473EF385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="3090" windowWidth="29115" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="7500" windowWidth="27435" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>high_occupancy_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOtask_scheduled_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HI_exec_rate_low</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -384,7 +392,7 @@
     <col min="1" max="16384" width="20.875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,6 +407,12 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
